--- a/result_summary.xlsx
+++ b/result_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,42 +453,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>201621351</t>
+          <t>102150830</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이석원</t>
+          <t>박상철</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>201751990</t>
+          <t>13프로20231230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>최유현</t>
+          <t>문윤상</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201911719</t>
+          <t>201611950</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>박수진</t>
+          <t>김예승</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202150830</t>
+          <t>201621351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>박상철</t>
+          <t>이석원</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202212361</t>
+          <t>201751890</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>강장권</t>
+          <t>최옥현</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,16 +528,211 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>201751990</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>최유현</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>201811710</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>문윤식</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>201811710</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>운윤식</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>201911719</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>박수진</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>201911950</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>김예승</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>202011510</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>조하림</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>202011590</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>조하림</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>202150830</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>박상철</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>202212361</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>강장권</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023(230</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>문윤상</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>202463061</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이지연</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>25201811950</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>김예승</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>F202011590</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>조하딩</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/result_summary.xlsx
+++ b/result_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201751990</t>
+          <t>201751890</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,16 +543,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201811710</t>
+          <t>201751990</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>문윤식</t>
+          <t>최유현</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -563,52 +563,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>운윤식</t>
+          <t>문윤식</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201911719</t>
+          <t>201811710</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>박수진</t>
+          <t>운윤식</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201911950</t>
+          <t>201911719</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김예승</t>
+          <t>박수진</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>202011510</t>
+          <t>201911950</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>조하림</t>
+          <t>김예승</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>202011590</t>
+          <t>202011510</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,48 +627,48 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>202150830</t>
+          <t>202011590</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>박상철</t>
+          <t>조하림</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>202212361</t>
+          <t>202150830</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>강장권</t>
+          <t>박상철</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023(230</t>
+          <t>202212361</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>문윤상</t>
+          <t>강장권</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,27 +678,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202463061</t>
+          <t>202212361</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이지연</t>
+          <t>황항권</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25201811950</t>
+          <t>2023(230</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김예승</t>
+          <t>문윤상</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,31 +708,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F202011590</t>
+          <t>202463061</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>조하딩</t>
+          <t>이지연</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>25201811950</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>김예승</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F202011590</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>조하딩</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>5</v>
+      <c r="C22" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/result_summary.xlsx
+++ b/result_summary.xlsx
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
